--- a/data/trans_bre/P21D_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21D_1_R-Provincia-trans_bre.xlsx
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.590478445652168</v>
+        <v>1.437059767714469</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3032907023771109</v>
+        <v>0.2664166611066164</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
     </row>
